--- a/biology/Zoologie/Hamadryas_feronia/Hamadryas_feronia.xlsx
+++ b/biology/Zoologie/Hamadryas_feronia/Hamadryas_feronia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hamadryas feronia ou Craqueur variable est une  espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Biblidinae et du genre Hamadryas.
 </t>
@@ -511,15 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hamadryas feronia a été décrit par le naturaliste suédois Carl von Linné en 1758 sous le nom initial de Papilio feronia[1].
-Synonymie
-Papilio feronia (Linné, 1758) Protonyme
-Peridroma feronia (Godman &amp; Salvin, 1883) [2]
-Amphichlora feronia (Dyar, 1903)[3]
-Nom vernaculaire
-Hamadryas feronia se nomme Craqueur variable en français et Variable Cracker en anglais[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas feronia a été décrit par le naturaliste suédois Carl von Linné en 1758 sous le nom initial de Papilio feronia.
 </t>
         </is>
       </c>
@@ -545,93 +553,102 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Papilio feronia (Linné, 1758) Protonyme
+Peridroma feronia (Godman &amp; Salvin, 1883) 
+Amphichlora feronia (Dyar, 1903)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hamadryas_feronia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_feronia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas feronia se nomme Craqueur variable en français et Variable Cracker en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hamadryas_feronia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_feronia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Liste des sous-espèces
-Hamadryas feronia feronia; présent au Paraguay, en Équateur, au Brésil, au Pérou, en Colombie, au Venezuela, au Surinam, en Guyana et en Guyane[5].
+Hamadryas feronia feronia; présent au Paraguay, en Équateur, au Brésil, au Pérou, en Colombie, au Venezuela, au Surinam, en Guyana et en Guyane.
 Synonymie pour cette sous espèce
 Ageronia feronia catablymata (Fruhstorfer, 1916)
 Ageronia feronia odumbrata (Fruhstorfer, 1916)
 Peridromia feronia peruviana (Bryk, 1953)
-Hamadryas feronia obumbrata  (Brown &amp; Mielke, 1967)[6]
-Hamadryas feronia farinulenta (Fruhstorfer, 1916); présent au Mexique, au Guatemala, au Costa Rica, à Panama, en Équateur, au Honduras, en Colombie,  en Bolivie, au Brésil, au Pérou, au Venezuela et à Trinité-et-Tobago[7].
+Hamadryas feronia obumbrata  (Brown &amp; Mielke, 1967)
+Hamadryas feronia farinulenta (Fruhstorfer, 1916); présent au Mexique, au Guatemala, au Costa Rica, à Panama, en Équateur, au Honduras, en Colombie,  en Bolivie, au Brésil, au Pérou, au Venezuela et à Trinité-et-Tobago.
 Synonymie pour cette sous espèce
 Ageronia feronia farinulenta (Fruhstorfer, 1916)
 Ageronia feronia insularis (Fruhstorfer, 1916)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hamadryas_feronia</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hamadryas_feronia</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hamadryas feronia est un grand papillon d'une envergure de 73 mm à 83 mm aux ailes antérieures à bord costal vouté, qui présente un dessus marbré de tons de beige ornementé de bleu avec aux ailes antérieures une marque rouge en S à la moitié du bord costal[4].
-Le revers est blanc crème avec une ornementation marron de la partie discale et postdiscale des ailes antérieures et des ailes postérieures blanc crème avec uniquement une ligne submarginale de cercles marron et une bande marginale marron ponctuée de taches crème. Les ailes antérieures présentent la même marque rouge à la moitié du bord costal que sur le dessus[5].
-			Craqueur variable in vivo
-Chenille
-Les chenilles sont noires, ornées d'une ligne rouge, et développent de nombreuses épines[8].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hamadryas_feronia</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hamadryas_feronia</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hamadryas feronia vole toute l'année en zone tropicale, de juillet à décembre dans le sud du Texas[4].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Euphorbiaceae, Dalechampia scandens, Dalechampia stenosepala, Dalechampia tiliifolia et Dalechampia triphylla (travaux de Jenkins en 1983, Otero en 1988, Neild en 1996 et Host en 2010[5])[7],[4].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -653,16 +670,230 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas feronia est un grand papillon d'une envergure de 73 mm à 83 mm aux ailes antérieures à bord costal vouté, qui présente un dessus marbré de tons de beige ornementé de bleu avec aux ailes antérieures une marque rouge en S à la moitié du bord costal.
+Le revers est blanc crème avec une ornementation marron de la partie discale et postdiscale des ailes antérieures et des ailes postérieures blanc crème avec uniquement une ligne submarginale de cercles marron et une bande marginale marron ponctuée de taches crème. Les ailes antérieures présentent la même marque rouge à la moitié du bord costal que sur le dessus.
+			Craqueur variable in vivo
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hamadryas_feronia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_feronia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles sont noires, ornées d'une ligne rouge, et développent de nombreuses épines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hamadryas_feronia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_feronia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas feronia vole toute l'année en zone tropicale, de juillet à décembre dans le sud du Texas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hamadryas_feronia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_feronia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Euphorbiaceae, Dalechampia scandens, Dalechampia stenosepala, Dalechampia tiliifolia et Dalechampia triphylla (travaux de Jenkins en 1983, Otero en 1988, Neild en 1996 et Host en 2010),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hamadryas_feronia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_feronia</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hamadryas feronia est présent dans le sud du Texas, au Mexique,  au Guatemala, au Costa Rica, au Honduras, en Équateur, en Colombie, au Venezuela, à Trinité-et-Tobago, en Bolivie, au Pérou, au Paraguay au Brésil, au Surinam, en Guyana et en Guyane[7],[4],[5]. 
-Biotope
-Hamadryas feronia réside en forêt tropicale où il est visible en bordure des routes[5].
-Protection
-Pas de statut de protection particulier.
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas feronia est présent dans le sud du Texas, au Mexique,  au Guatemala, au Costa Rica, au Honduras, en Équateur, en Colombie, au Venezuela, à Trinité-et-Tobago, en Bolivie, au Pérou, au Paraguay au Brésil, au Surinam, en Guyana et en Guyane. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hamadryas_feronia</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_feronia</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas feronia réside en forêt tropicale où il est visible en bordure des routes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hamadryas_feronia</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_feronia</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
